--- a/medicine/Médecine vétérinaire/Roger-Paul_Dechambre/Roger-Paul_Dechambre.xlsx
+++ b/medicine/Médecine vétérinaire/Roger-Paul_Dechambre/Roger-Paul_Dechambre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Roger-Paul Dechambre, né le 14 août 1935 à Boulogne-Billancourt et mort le 7 novembre 2016 à Sens, est un vétérinaire et entomologiste français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roger-Paul Dechambre, né le 14 août 1935 à Boulogne-Billancourt et mort le 7 novembre 2016 à Sens, est un vétérinaire et entomologiste français.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dechambre fait des études à l'École nationale vétérinaire d’Alfort, finissant en 1960 avec un doctorat avec la thèse Aspects Primitifs De L’Elevage Du Mouton[2]. 
-Ensuite il étudie à l'Université Pierre-et-Marie-Curie à Paris finissant en 1970 avec la thèse Effet de groupe et évolution des tumeurs ascitiques chez la souris[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dechambre fait des études à l'École nationale vétérinaire d’Alfort, finissant en 1960 avec un doctorat avec la thèse Aspects Primitifs De L’Elevage Du Mouton. 
+Ensuite il étudie à l'Université Pierre-et-Marie-Curie à Paris finissant en 1970 avec la thèse Effet de groupe et évolution des tumeurs ascitiques chez la souris,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Travail</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Roger-Paul Dechambre était conservateur de musée au Muséum national d’histoire naturelle à Paris[5]. Il formait une des plus grandes et plus complètes collections mondiales concernant les Dynastinae[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roger-Paul Dechambre était conservateur de musée au Muséum national d’histoire naturelle à Paris. Il formait une des plus grandes et plus complètes collections mondiales concernant les Dynastinae.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Publications (extrait)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le plupart de ses nombreuses publications traite du groupe des Dynastinae[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le plupart de ses nombreuses publications traite du groupe des Dynastinae.
 (fr + en) R.-P. Dechambre, Lachaume, Gilbert (trad. Julee Launay), Dynastidae américains : Cyclocephalini, Agaocephalini, Pentodontini, Oryctini, Phileurini, Venette, Venette : Sciences nat, 1992, 89 p. (ISBN 2-85724-055-4)
 (fr + en) Gilbert Lachaume, Gilbert (trad. Julee Launay), Dynastidae américains, t. 14, Venette France Sciences Nat, coll. « (Les Coléoptères du monde », 1992
 (fr + en) Roger-Paul Dechambre (trad. Brian Morris), Dynastidae (Texte imprimé) : Dynastidae australiens et océaniens = australian and oceanian Dynastidae, Canterbury, Hillside Books, 2005
@@ -612,7 +630,9 @@
           <t>Genres décrits</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Roger-Paul Dechambre a décrit nombreux genres, dont :
 Golofa globulicornis (1975)
